--- a/Scripts/Daniel/Resultados.xlsx
+++ b/Scripts/Daniel/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Escritorio\Uniandes\PEG\Big Data and Machine Learning\BD-ML---FinalProject\Scripts\Daniel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3D2DEF-098C-413E-B086-743B2ABD7C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DBBB5-0EDE-4E92-8E20-CFE4EA15443D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A96AD24C-D809-4D82-BD82-2A7C28B8BC12}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Ingreso del Hogar</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Se considera pobre</t>
+  </si>
+  <si>
+    <t>Computador de escritorio</t>
+  </si>
+  <si>
+    <t>Dedicación 2-3 horas al estudio al día</t>
+  </si>
+  <si>
+    <t>Dedicación más de 6 horas de estudio</t>
   </si>
 </sst>
 </file>
@@ -287,46 +296,46 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>Se considera pobre</c:v>
+                  <c:v>Dedicación más de 6 horas de estudio</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Computador de escritorio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Habitaciones (para dormir) en la vivienda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dedicación 2-3 horas al estudio al día</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Tiene equipo de sonido</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>Teja metálica como principal material de techo</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ruta escolar como principal medio de transporte</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Habitaciones (para dormir) en la vivienda</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cantidad de personas en el hogar</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>Cuartos en la vivienda</c:v>
+                  <c:v>Proporción cotizantes de pensión</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Vivienda en arriendo</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Proporción cotizantes de pensión</c:v>
+                  <c:v>Ruta escolar como principal medio de transporte</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Proporción de trabajadores en la PET</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Proporción de personas dedicadas a oficios del hogar</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>A pie como principal medio de transporte</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Proporción de trabajadores en la PET</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>Proporción de trabajadores en el hogar</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Tener computador portatil</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Proporción de personas dedicadas a oficios del hogar</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Proporción de trabajadores en el hogar</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Tiempo promedio transporte al centro educativo</c:v>
@@ -356,61 +365,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>8.5</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.2</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.7</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.8</c:v>
+                  <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.3</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.7</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.9</c:v>
+                  <c:v>26.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.299999999999997</c:v>
+                  <c:v>39.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.5</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>88</c:v>
+                  <c:v>90.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -1169,14 +1178,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230980</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171984</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>118644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1199,8 +1208,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="8176260"/>
           <a:ext cx="3400900" cy="3829584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526280</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3699933-0909-1302-DEEB-6E62BA0C2834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4770120" y="3977640"/>
+          <a:ext cx="3581900" cy="4010585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CB0737-3EE8-44D6-82C5-FBEAF8045CFF}">
-  <dimension ref="G1:H21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,7 +1573,7 @@
     <col min="7" max="7" width="44.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1528,159 +1581,219 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="3" spans="7:8" x14ac:dyDescent="0.3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="4" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G4" s="1" t="s">
+      <c r="H6" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="6" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="7" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H7" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="7:8" x14ac:dyDescent="0.3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="9" spans="7:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="1">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="10" spans="7:8" x14ac:dyDescent="0.3">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="11" spans="7:8" x14ac:dyDescent="0.3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="12" spans="7:8" x14ac:dyDescent="0.3">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1">
         <v>18.5</v>
       </c>
     </row>
-    <row r="13" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="14" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="15" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H15" s="1">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="16" spans="7:8" x14ac:dyDescent="0.3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="1">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="1">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="1">
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
       </c>

--- a/Scripts/Daniel/Resultados.xlsx
+++ b/Scripts/Daniel/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Escritorio\Uniandes\PEG\Big Data and Machine Learning\BD-ML---FinalProject\Scripts\Daniel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DBBB5-0EDE-4E92-8E20-CFE4EA15443D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9608F1-37CE-4840-B883-DEE340971F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A96AD24C-D809-4D82-BD82-2A7C28B8BC12}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Ingreso del Hogar</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Dedicación más de 6 horas de estudio</t>
+  </si>
+  <si>
+    <t>¿Cuánto cuesta o costaría un arriendo de su vivienda?</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
                   <c:v>Proporción estudiantes en el hogar</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Valor arriendos</c:v>
+                  <c:v>¿Cuánto cuesta o costaría un arriendo de su vivienda?</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Ingreso Unidad de Gasto</c:v>
@@ -1564,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CB0737-3EE8-44D6-82C5-FBEAF8045CFF}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1762,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1">
         <v>45.5</v>
